--- a/SNP/Genes.xlsx
+++ b/SNP/Genes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umcutrecht-my.sharepoint.com/personal/s_w_vanderlaan-2_umcutrecht_nl/Documents/PLINK/analyses/lookups/AE_20200512_COL_MKAVOUSI_MBOS_CHARGE_1000G_CAC/SNP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E6D6FD73-9763-3946-A206-CEE2733231D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC954DD-547E-524B-A344-6F8ED9569485}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E6D6FD73-9763-3946-A206-CEE2733231D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1158FBE-A743-5242-9337-70A0F3387121}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="2940" windowWidth="19340" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6160" yWindow="1440" windowWidth="19340" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Genes!$A$1:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Genes!$A$1:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Gene</t>
   </si>
@@ -306,13 +306,157 @@
   </si>
   <si>
     <t>ENSG00000130208</t>
+  </si>
+  <si>
+    <t>ENSG00000163638</t>
+  </si>
+  <si>
+    <t>ENSG00000241158</t>
+  </si>
+  <si>
+    <t>ENSG00000241684</t>
+  </si>
+  <si>
+    <t>ENSG00000070961</t>
+  </si>
+  <si>
+    <t>ENSG00000050820</t>
+  </si>
+  <si>
+    <t>ENSG00000093010</t>
+  </si>
+  <si>
+    <t>ENSG00000158220</t>
+  </si>
+  <si>
+    <t>ENSG00000112214</t>
+  </si>
+  <si>
+    <t>ENSG00000115486</t>
+  </si>
+  <si>
+    <t>ENSG00000119969</t>
+  </si>
+  <si>
+    <t>ENSG00000182218</t>
+  </si>
+  <si>
+    <t>ENSG00000165757</t>
+  </si>
+  <si>
+    <t>ENSG00000248971</t>
+  </si>
+  <si>
+    <t>ENSG00000233237</t>
+  </si>
+  <si>
+    <t>ENSG00000123684</t>
+  </si>
+  <si>
+    <t>ENSG00000230069</t>
+  </si>
+  <si>
+    <t>ENSG00000168906</t>
+  </si>
+  <si>
+    <t>ENSG00000158186</t>
+  </si>
+  <si>
+    <t>ENSG00000170962</t>
+  </si>
+  <si>
+    <t>ENSG00000005249</t>
+  </si>
+  <si>
+    <t>ENSG00000215022.3</t>
+  </si>
+  <si>
+    <t>ENS00000272379.1</t>
+  </si>
+  <si>
+    <t>ENSG00000070366</t>
+  </si>
+  <si>
+    <t>ENSG00000091656</t>
+  </si>
+  <si>
+    <t>ADAMTS9</t>
+  </si>
+  <si>
+    <t>ADAMTS9-AS1</t>
+  </si>
+  <si>
+    <t>ADAMTS9-AS2</t>
+  </si>
+  <si>
+    <t>ATP2B1</t>
+  </si>
+  <si>
+    <t>BCAR1</t>
+  </si>
+  <si>
+    <t>COMT</t>
+  </si>
+  <si>
+    <t>ESYT3</t>
+  </si>
+  <si>
+    <t>FHL5</t>
+  </si>
+  <si>
+    <t>GGCX</t>
+  </si>
+  <si>
+    <t>HELLS</t>
+  </si>
+  <si>
+    <t>HHIPL1</t>
+  </si>
+  <si>
+    <t>KIAA1462</t>
+  </si>
+  <si>
+    <t>KRT8P46</t>
+  </si>
+  <si>
+    <t>LINC00472</t>
+  </si>
+  <si>
+    <t>LPGAT1</t>
+  </si>
+  <si>
+    <t>LRRC37A15P</t>
+  </si>
+  <si>
+    <t>MAT2A</t>
+  </si>
+  <si>
+    <t>MRAS</t>
+  </si>
+  <si>
+    <t>PDGFD</t>
+  </si>
+  <si>
+    <t>PRKAR2B</t>
+  </si>
+  <si>
+    <t>RP1-257A7.4</t>
+  </si>
+  <si>
+    <t>RP1-257A7.5</t>
+  </si>
+  <si>
+    <t>SMG6</t>
+  </si>
+  <si>
+    <t>ZFHX4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +476,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -365,6 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F080AD-A6C4-C84A-8AC2-B8A18EFA85A7}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,857 +809,1145 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>46713383</v>
       </c>
       <c r="D2" s="4">
-        <v>2621913</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2634619</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
+        <v>46799449</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>79051545</v>
       </c>
       <c r="D3" s="4">
-        <v>12290596</v>
-      </c>
-      <c r="E3" s="4">
-        <v>12297427</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
+        <v>79103773</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64500333</v>
       </c>
       <c r="D4" s="4">
-        <v>12717893</v>
-      </c>
-      <c r="E4" s="4">
-        <v>13288645</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
+        <v>64675676</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>64547014</v>
       </c>
       <c r="D5" s="4">
-        <v>13266774</v>
-      </c>
-      <c r="E5" s="4">
-        <v>13328815</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
+        <v>64575765</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>64670546</v>
       </c>
       <c r="D6" s="4">
-        <v>13358062</v>
-      </c>
-      <c r="E6" s="4">
-        <v>13487894</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
+        <v>64997143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>75910960</v>
       </c>
       <c r="D7" s="4">
-        <v>132089007</v>
-      </c>
-      <c r="E7" s="4">
-        <v>132095668</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
+        <v>76469061</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44873687</v>
       </c>
       <c r="D8" s="4">
-        <v>132089007</v>
-      </c>
-      <c r="E8" s="4">
-        <v>132095668</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
+        <v>44878739</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
+      <c r="C9" s="4">
+        <v>75881524</v>
       </c>
       <c r="D9" s="4">
-        <v>45951949</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45961473</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
+        <v>75910821</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45417504</v>
       </c>
       <c r="D10" s="4">
-        <v>46713383</v>
-      </c>
-      <c r="E10" s="4">
-        <v>46799449</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
+        <v>45422606</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45409011</v>
       </c>
       <c r="D11" s="4">
-        <v>21802542</v>
-      </c>
-      <c r="E11" s="4">
-        <v>21931646</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
+        <v>45412650</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>63661059</v>
       </c>
       <c r="D12" s="4">
-        <v>21802635</v>
-      </c>
-      <c r="E12" s="4">
-        <v>22032985</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
+        <v>63856703</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>89980828</v>
       </c>
       <c r="D13" s="4">
-        <v>21967137</v>
-      </c>
-      <c r="E13" s="4">
-        <v>21967738</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
+        <v>90105077</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45312328</v>
       </c>
       <c r="D14" s="4">
-        <v>21967751</v>
-      </c>
-      <c r="E14" s="4">
-        <v>21995300</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
+        <v>45324673</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
+      <c r="C15" s="4">
+        <v>75261928</v>
       </c>
       <c r="D15" s="4">
-        <v>22002902</v>
-      </c>
-      <c r="E15" s="4">
-        <v>22009362</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
+        <v>75303951</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2621913</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2634619</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4">
+        <v>21967137</v>
+      </c>
+      <c r="D17" s="4">
+        <v>21967738</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="D16" s="4">
-        <v>44101855</v>
-      </c>
-      <c r="E16" s="4">
-        <v>44113351</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
+      <c r="C18" s="4">
+        <v>75572259</v>
+      </c>
+      <c r="D18" s="4">
+        <v>75634343</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
+        <v>21967751</v>
+      </c>
+      <c r="D19" s="4">
+        <v>21995300</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>22002902</v>
+      </c>
+      <c r="D20" s="4">
+        <v>22009362</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <v>78857862</v>
+      </c>
+      <c r="D21" s="4">
+        <v>78887611</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4">
+        <v>78916461</v>
+      </c>
+      <c r="D22" s="4">
+        <v>79020096</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>110148963</v>
+      </c>
+      <c r="D23" s="4">
+        <v>110307157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4">
+        <v>110958159</v>
+      </c>
+      <c r="D24" s="4">
+        <v>111165374</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>19927130</v>
+      </c>
+      <c r="D25" s="4">
+        <v>19958498</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
         <v>10</v>
       </c>
-      <c r="D17" s="4">
-        <v>44139307</v>
-      </c>
-      <c r="E17" s="4">
-        <v>44144304</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
+      <c r="C26" s="4">
+        <v>76993727</v>
+      </c>
+      <c r="D26" s="4">
+        <v>76995788</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4">
+        <v>79213400</v>
+      </c>
+      <c r="D27" s="4">
+        <v>79241916</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>10</v>
       </c>
-      <c r="D18" s="4">
-        <v>44873687</v>
-      </c>
-      <c r="E18" s="4">
-        <v>44878739</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
+      <c r="C28" s="4">
+        <v>76797594</v>
+      </c>
+      <c r="D28" s="4">
+        <v>76818272</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4">
+        <v>76854192</v>
+      </c>
+      <c r="D29" s="4">
+        <v>76868979</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4">
-        <v>63661059</v>
-      </c>
-      <c r="E19" s="4">
-        <v>63856703</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+      <c r="C30" s="4">
+        <v>12290596</v>
+      </c>
+      <c r="D30" s="4">
+        <v>12297427</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
-        <v>63942794</v>
-      </c>
-      <c r="E20" s="4">
-        <v>64028466</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
+      <c r="C31" s="4">
+        <v>132089007</v>
+      </c>
+      <c r="D31" s="4">
+        <v>132095668</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4">
+        <v>132089007</v>
+      </c>
+      <c r="D32" s="4">
+        <v>132095668</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>138151428</v>
+      </c>
+      <c r="D33" s="4">
+        <v>138201528</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4477393</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4488894</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
+        <v>97008424</v>
+      </c>
+      <c r="D35" s="4">
+        <v>97065512</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4">
-        <v>75572259</v>
-      </c>
-      <c r="E21" s="4">
-        <v>75634343</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4">
-        <v>75757872</v>
-      </c>
-      <c r="E22" s="4">
-        <v>75879918</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4">
-        <v>75881524</v>
-      </c>
-      <c r="E23" s="4">
-        <v>75910821</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4">
-        <v>75910960</v>
-      </c>
-      <c r="E24" s="4">
-        <v>76469061</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4">
-        <v>76585340</v>
-      </c>
-      <c r="E25" s="4">
-        <v>76792380</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26" s="4">
-        <v>76797594</v>
-      </c>
-      <c r="E26" s="4">
-        <v>76818272</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4">
-        <v>76854192</v>
-      </c>
-      <c r="E27" s="4">
-        <v>76868979</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4">
-        <v>76859344</v>
-      </c>
-      <c r="E28" s="4">
-        <v>76941881</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29" s="4">
-        <v>76969912</v>
-      </c>
-      <c r="E29" s="4">
-        <v>76991206</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4">
-        <v>76993727</v>
-      </c>
-      <c r="E30" s="4">
-        <v>76995788</v>
-      </c>
-      <c r="F30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4477393</v>
-      </c>
-      <c r="E31" s="4">
-        <v>4488894</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
-        <v>110148963</v>
-      </c>
-      <c r="E32" s="4">
-        <v>110307157</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4">
+        <v>13358062</v>
+      </c>
+      <c r="D36" s="4">
+        <v>13487894</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="B33">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
-        <v>110958159</v>
-      </c>
-      <c r="E33" s="4">
-        <v>111165374</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4">
-        <v>78857862</v>
-      </c>
-      <c r="E34" s="4">
-        <v>78887611</v>
-      </c>
-      <c r="F34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4">
-        <v>78916461</v>
-      </c>
-      <c r="E35" s="4">
-        <v>79020096</v>
-      </c>
-      <c r="F35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4">
-        <v>79051545</v>
-      </c>
-      <c r="E36" s="4">
-        <v>79103773</v>
-      </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>15</v>
+      <c r="C37" s="4">
+        <v>85770846</v>
       </c>
       <c r="D37" s="4">
-        <v>79102829</v>
-      </c>
-      <c r="E37" s="4">
-        <v>79190475</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85790670</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
+        <v>96303547</v>
+      </c>
+      <c r="D38" s="4">
+        <v>96374662</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4">
+        <v>100109447</v>
+      </c>
+      <c r="D39" s="4">
+        <v>100147906</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45951949</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45961473</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>76585340</v>
+      </c>
+      <c r="D41" s="4">
+        <v>76792380</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4">
+        <v>30300729</v>
+      </c>
+      <c r="D42" s="4">
+        <v>30406423</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>103649706</v>
+      </c>
+      <c r="D43" s="4">
+        <v>103651404</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>72054047</v>
+      </c>
+      <c r="D44">
+        <v>72130472</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>211916799</v>
+      </c>
+      <c r="D45">
+        <v>212004114</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>102727274</v>
+      </c>
+      <c r="D46">
+        <v>102730721</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>85764288</v>
+      </c>
+      <c r="D47">
+        <v>85773403</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
         <v>15</v>
       </c>
-      <c r="D38" s="4">
-        <v>79213400</v>
-      </c>
-      <c r="E38" s="4">
-        <v>79241916</v>
-      </c>
-      <c r="F38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
+      <c r="C48">
+        <v>79102829</v>
+      </c>
+      <c r="D48">
+        <v>79190475</v>
+      </c>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>138064539</v>
+      </c>
+      <c r="D49">
+        <v>138125375</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>21802542</v>
+      </c>
+      <c r="D50">
+        <v>21931646</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51">
         <v>11</v>
       </c>
-      <c r="C39">
+      <c r="C51">
+        <v>103776914</v>
+      </c>
+      <c r="D51">
+        <v>104037107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>12717893</v>
+      </c>
+      <c r="D52">
+        <v>13288645</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>106683094</v>
+      </c>
+      <c r="D53">
+        <v>106803256</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54">
         <v>19</v>
       </c>
-      <c r="D39" s="4">
-        <v>45312328</v>
-      </c>
-      <c r="E39" s="4">
-        <v>45324673</v>
-      </c>
-      <c r="F39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>11</v>
-      </c>
-      <c r="C40">
+      <c r="C54">
+        <v>45349432</v>
+      </c>
+      <c r="D54">
+        <v>45392485</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>21802635</v>
+      </c>
+      <c r="D55">
+        <v>22032985</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>13265093</v>
+      </c>
+      <c r="D56">
+        <v>13295818</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>13290250</v>
+      </c>
+      <c r="D57">
+        <v>13290722</v>
+      </c>
+      <c r="E57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>63942794</v>
+      </c>
+      <c r="D58">
+        <v>64028466</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>76859344</v>
+      </c>
+      <c r="D59">
+        <v>76941881</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>1962133</v>
+      </c>
+      <c r="D60">
+        <v>2209065</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>13266774</v>
+      </c>
+      <c r="D61">
+        <v>13328815</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62">
         <v>19</v>
       </c>
-      <c r="D40" s="4">
-        <v>45349432</v>
-      </c>
-      <c r="E40" s="4">
-        <v>45392485</v>
-      </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>19</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C62">
         <v>45393826</v>
       </c>
-      <c r="E41" s="4">
+      <c r="D62">
         <v>45406946</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>11</v>
-      </c>
-      <c r="C42">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4">
-        <v>45409011</v>
-      </c>
-      <c r="E42" s="4">
-        <v>45412650</v>
-      </c>
-      <c r="F42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>19</v>
-      </c>
-      <c r="D43" s="4">
-        <v>45417504</v>
-      </c>
-      <c r="E43" s="4">
-        <v>45422606</v>
-      </c>
-      <c r="F43" t="s">
-        <v>89</v>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>75757872</v>
+      </c>
+      <c r="D63">
+        <v>75879918</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>76969912</v>
+      </c>
+      <c r="D64">
+        <v>76991206</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>77591454</v>
+      </c>
+      <c r="D65">
+        <v>77780521</v>
+      </c>
+      <c r="E65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>44139307</v>
+      </c>
+      <c r="D66">
+        <v>44144304</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>44101855</v>
+      </c>
+      <c r="D67">
+        <v>44113351</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B6" xr:uid="{167C23E3-82A9-AE4E-9BE3-55938972511E}"/>
+  <autoFilter ref="A1:A6" xr:uid="{167C23E3-82A9-AE4E-9BE3-55938972511E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>